--- a/input.xlsx
+++ b/input.xlsx
@@ -681,14 +681,14 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.86"/>
@@ -1694,11 +1694,11 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="17.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="48" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="17.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="48" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/input.xlsx
+++ b/input.xlsx
@@ -38,10 +38,10 @@
     <t xml:space="preserve">MM/DD/YYYY</t>
   </si>
   <si>
-    <t xml:space="preserve">Input folder name (HOME/data/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-example</t>
+    <t xml:space="preserve">Input folder name (tke-analyst/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data/test-example</t>
   </si>
   <si>
     <t xml:space="preserve">string – lower and UPPER Cases are important</t>
@@ -681,14 +681,14 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.86"/>
@@ -1694,7 +1694,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="17.59"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">data/test-example</t>
   </si>
   <si>
-    <t xml:space="preserve">string – lower and UPPER Cases are important</t>
+    <t xml:space="preserve">string – lower and UPPER Cases are important must not end on “/” or “\” - us “/” for paths</t>
   </si>
   <si>
     <t xml:space="preserve">Pump rate</t>
@@ -681,13 +681,13 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="8.86"/>
